--- a/sentinel_toolkit/srf/tests/test_data/s2a_srf.xlsx
+++ b/sentinel_toolkit/srf/tests/test_data/s2a_srf.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\I512620\PycharmProjects\sentinel-toolkit\tests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Georgi\PycharmProjects\sentinel-toolkit\sentinel_toolkit\srf\tests\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04DF58DF-DFA1-4A61-A8F5-1DBCB1DF2710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFB52E02-3AB0-4EF8-BA8E-E7454EAB16E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" xr2:uid="{8C773113-FD7E-49FC-A0CA-A2D21ED69C1B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{8C773113-FD7E-49FC-A0CA-A2D21ED69C1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Spectral Responses (S2A)" sheetId="1" r:id="rId1"/>
+    <sheet name="Spectral Responses (S2B)" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>SR_WL</t>
   </si>
@@ -76,6 +77,45 @@
   </si>
   <si>
     <t>S2A_SR_AV_B12</t>
+  </si>
+  <si>
+    <t>S2B_SR_AV_B1</t>
+  </si>
+  <si>
+    <t>S2B_SR_AV_B3</t>
+  </si>
+  <si>
+    <t>S2B_SR_AV_B2</t>
+  </si>
+  <si>
+    <t>S2B_SR_AV_B4</t>
+  </si>
+  <si>
+    <t>S2B_SR_AV_B5</t>
+  </si>
+  <si>
+    <t>S2B_SR_AV_B6</t>
+  </si>
+  <si>
+    <t>S2B_SR_AV_B7</t>
+  </si>
+  <si>
+    <t>S2B_SR_AV_B8</t>
+  </si>
+  <si>
+    <t>S2B_SR_AV_B8A</t>
+  </si>
+  <si>
+    <t>S2B_SR_AV_B9</t>
+  </si>
+  <si>
+    <t>S2B_SR_AV_B10</t>
+  </si>
+  <si>
+    <t>S2B_SR_AV_B11</t>
+  </si>
+  <si>
+    <t>S2B_SR_AV_B12</t>
   </si>
 </sst>
 </file>
@@ -454,17 +494,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{897D5F2B-FD85-42F2-A03A-EA0216035CFB}">
   <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="A4:N7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N7" sqref="A1:N7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="13" max="13" width="16.734375" customWidth="1"/>
-    <col min="14" max="14" width="23.3671875" customWidth="1"/>
+    <col min="13" max="13" width="16.7109375" customWidth="1"/>
+    <col min="14" max="14" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -508,7 +548,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>438</v>
       </c>
@@ -552,7 +592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>439</v>
       </c>
@@ -596,7 +636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>440</v>
       </c>
@@ -640,7 +680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>441</v>
       </c>
@@ -684,7 +724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>442</v>
       </c>
@@ -728,7 +768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>443</v>
       </c>
@@ -776,4 +816,342 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD6EEB3C-27BE-482F-8882-54C2CE1D5F9C}">
+  <dimension ref="A1:N7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" customWidth="1"/>
+    <col min="13" max="13" width="18.28515625" customWidth="1"/>
+    <col min="14" max="14" width="21.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>438</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.81089381526127802</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0</v>
+      </c>
+      <c r="N2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>439</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.82419875600481496</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1.0315428586994999E-2</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0</v>
+      </c>
+      <c r="N3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>440</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.85415810721505203</v>
+      </c>
+      <c r="C4" s="2">
+        <v>3.0041933166461501E-2</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0</v>
+      </c>
+      <c r="N4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>441</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.87079087671133204</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2.68758905675229E-2</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>442</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.88731096940431298</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2.4143150386107599E-2</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>443</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.926199242291321</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2.02100642531871E-2</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0</v>
+      </c>
+      <c r="N7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>